--- a/backend/uploads/import_nilai/nilai_EE0201-19_Kalkulus II_A_Tahun_2017.xlsx
+++ b/backend/uploads/import_nilai/nilai_EE0201-19_Kalkulus II_A_Tahun_2017.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -74,7 +74,43 @@
     <t>Nim</t>
   </si>
   <si>
-    <t>Nama Mahasiswa</t>
+    <t>Mahasiswa</t>
+  </si>
+  <si>
+    <t>Nilai</t>
+  </si>
+  <si>
+    <t>CPMK1</t>
+  </si>
+  <si>
+    <t>CPMK2</t>
+  </si>
+  <si>
+    <t>CPMK3</t>
+  </si>
+  <si>
+    <t>CPMK4</t>
+  </si>
+  <si>
+    <t>CPMK5</t>
+  </si>
+  <si>
+    <t>I0716001</t>
+  </si>
+  <si>
+    <t>ADIP SAFIUDIN</t>
+  </si>
+  <si>
+    <t>I0716007</t>
+  </si>
+  <si>
+    <t>Aulia Ramadhani</t>
+  </si>
+  <si>
+    <t>I0716012</t>
+  </si>
+  <si>
+    <t>Daniel Aquino Purba</t>
   </si>
 </sst>
 </file>
@@ -111,7 +147,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,7 +159,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -140,17 +194,15 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border/>
     <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -162,6 +214,22 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -171,38 +239,58 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="6" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="7" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,120 +591,240 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="true" style="0"/>
     <col min="2" max="2" width="17.42578125" customWidth="true" style="0"/>
-    <col min="3" max="3" width="62" customWidth="true" style="0"/>
+    <col min="3" max="3" width="21.140625" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.28515625" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8.28515625" customWidth="true" style="0"/>
+    <col min="6" max="6" width="8.28515625" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8.28515625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="6" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="6" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>2017</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="6" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="6" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="6" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="6" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="6" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="5" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="D13:H13"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:H12"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
